--- a/08-design-dynamic/Micro-TCG-Ian-Schreiber.xlsx
+++ b/08-design-dynamic/Micro-TCG-Ian-Schreiber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5784\07-design-dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-gamedev\gamedev-5785\08-design-dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FFDC6C-49C4-4670-8D7A-4F7217D1D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE92B33-231C-45FC-A03B-6D9FDCB63391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,9 +454,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -494,7 +494,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -600,7 +600,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -742,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <f>-B2</f>
@@ -896,7 +896,7 @@
       </c>
       <c r="L2" s="2">
         <f>SUM(G2:K2)</f>
-        <v>0.20000000000000018</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <f>-B3</f>
@@ -936,7 +936,7 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(G3:K3)</f>
-        <v>0.20000000000000018</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <f>-B4</f>
@@ -976,7 +976,7 @@
       </c>
       <c r="L4" s="2">
         <f>SUM(G4:K4)</f>
-        <v>0.40000000000000036</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <f>-B5</f>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="L5" s="2">
         <f>SUM(G5:K5)</f>
-        <v>0.40000000000000036</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
